--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2974A5A-3112-6E4F-AD22-6B5D81DDE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A72017-3D3A-C549-80EF-2555AAA972EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" activeTab="2" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Publicação</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1iW6KHC4j0H-3bzbXLkONGfmQNbZcAVVj</t>
+  </si>
+  <si>
+    <t>Prêmio TAWI DE ERGONOMIA - ABERGO 2022 - Modalidade melhor case de Ergonomia por Ergonomista Certificado ABERGO/SisCEB - ‘’STARTUP DE ERGONOMIA COMO SOLUÇÃO PARA O TELETRABALHO NA PANDEMIA’’ - Autores: Hozana Zapata Ramirez, Luiza da Costa Queiroz Santini, Bruna Romani Oliani, Cynthia Mara Zilli Casagrande</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OEmSiuS25cryZn2f-6PV8Jintf3Taq1Q</t>
   </si>
 </sst>
 </file>
@@ -510,9 +516,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -533,15 +539,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44681</v>
+        <v>44890</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -549,16 +555,28 @@
         <v>44681</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44681</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{175A15DF-714B-4D42-B58D-C874E85D9B8C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -698,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Prêmios.xlsx
+++ b/docs/PPG/Prêmios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A72017-3D3A-C549-80EF-2555AAA972EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557FC4A-49F8-BE49-94A6-1CDE7B5E7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Publicação</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1OEmSiuS25cryZn2f-6PV8Jintf3Taq1Q</t>
+  </si>
+  <si>
+    <t>Menção Honrosa - OSTEOPATIA E FISIOTERAPIA COMPARADA À FISIOTERAPIA SOZINHA NA FADIGA EM LONGO COVID: UM ENSAIO PRAGMÁTICO RANDOMIZADO CONTROLADO DE SUPERIORIDADE - Ana Christina Certain Curi, D.Sc. 12, Ana Paula Antunes Ferreira, D.Sc.2, Leandro Alberto Calazans Nogueira, D.Sc.1, Ney Armando Mello Meziat Filho, D.Sc.1 , Arthur Sa  ́ Ferreira, D.Sc.1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y2DLPet5niWOrZ31z9uH6trf63nEPl6Y</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,15 +556,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44681</v>
+        <v>44880</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -566,17 +572,29 @@
         <v>44681</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44681</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{175A15DF-714B-4D42-B58D-C874E85D9B8C}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://drive.google.com/file/d/1gr_tdACLj9FMMYHFQ7lTI2tS6LNwRwB0/view?usp=sharing" xr:uid="{CF9D4C92-E4E5-4A4C-A15F-C0B9FDA692BA}"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://drive.google.com/file/d/1zxw1qeTWv5dvqaixtmv2QZubQmV6Xlwa/view?usp=sharing" xr:uid="{EB62A4FD-EBBB-8348-BEFB-B18A464621F2}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{550F58AA-B5B5-E149-B16D-50D6081AE7F3}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{B56E8450-C537-8949-B062-DF9B82AF6F3B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
